--- a/01_Input/00_CO Validation/Uganda - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Uganda - Energy Projects.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="11_C0200DA9FB882CF1ABF1BE001C5B9906202A95AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8ECCDAD-DF4E-4414-8F2C-09422E1BC531}"/>
+  <xr:revisionPtr revIDLastSave="391" documentId="11_C0200DA9FB882CF1ABF1BE001C5B9906202A95AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF27E093-F63D-4AC8-9F2D-AD6FF8C42E0E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="Projects" sheetId="1" r:id="rId2"/>
-    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId3"/>
+    <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
+    <sheet name="Projects (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="112">
   <si>
     <t>Project ID</t>
   </si>
@@ -77,6 +78,24 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>SEH Taxonomy</t>
+  </si>
+  <si>
+    <t>RISE Taxonomy</t>
+  </si>
+  <si>
+    <t>Flagship</t>
+  </si>
+  <si>
+    <t>Indirect Category</t>
+  </si>
+  <si>
+    <t>Indirect Taxonomy</t>
   </si>
   <si>
     <t>Nature, Climate, Energy, and Resilience Programme</t>
@@ -490,7 +509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -567,6 +586,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -575,7 +673,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -668,6 +766,83 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -973,11 +1148,384 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74260D8F-AF74-46D9-8F43-C6873EC3DB38}">
+  <dimension ref="A1:S12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7:L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" customWidth="1"/>
+    <col min="15" max="19" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45.75">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="20" customFormat="1" ht="121.5">
+      <c r="A2" s="48">
+        <v>143659</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="46">
+        <v>64339</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="32">
+        <v>5600000</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="54"/>
+      <c r="L2" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="57"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+    </row>
+    <row r="3" spans="1:19" ht="60.75">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="27">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27">
+        <v>1500</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+    </row>
+    <row r="4" spans="1:19" ht="76.5">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="27">
+        <v>0</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="47"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+    </row>
+    <row r="5" spans="1:19" ht="229.5">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="27">
+        <v>0</v>
+      </c>
+      <c r="H5" s="27">
+        <v>3000</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="47"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+    </row>
+    <row r="6" spans="1:19" ht="137.25">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="27">
+        <v>0</v>
+      </c>
+      <c r="H6" s="27">
+        <v>100</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="47"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+    </row>
+    <row r="7" spans="1:19" ht="336">
+      <c r="A7" s="63">
+        <v>5574</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="60">
+        <v>2170030</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="28">
+        <v>3</v>
+      </c>
+      <c r="H7" s="29">
+        <v>6</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="57"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+    </row>
+    <row r="8" spans="1:19" ht="121.5">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27">
+        <v>200</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="69"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+    </row>
+    <row r="9" spans="1:19" ht="167.25">
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="27">
+        <v>0</v>
+      </c>
+      <c r="H9" s="27">
+        <v>500</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="67"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="1:19"/>
+    <row r="12" spans="1:19">
+      <c r="A12" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A1F9346D-0655-49D7-9674-07A8FD12E742}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E06CD4F-A140-452E-B647-06E438A268E7}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A083FA-61BB-468B-9E7C-D191D0F0C820}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1036,33 +1584,33 @@
         <v>143659</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D2" s="34">
         <v>64339</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="32">
         <v>5600000</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K2" s="24"/>
       <c r="L2" s="34" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M2" s="33"/>
     </row>
@@ -1072,10 +1620,10 @@
       <c r="C3" s="36"/>
       <c r="D3" s="34"/>
       <c r="E3" s="27" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G3" s="27">
         <v>0</v>
@@ -1084,7 +1632,7 @@
         <v>1500</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J3" s="34"/>
       <c r="K3" s="26"/>
@@ -1097,19 +1645,19 @@
       <c r="C4" s="36"/>
       <c r="D4" s="34"/>
       <c r="E4" s="27" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G4" s="27">
         <v>0</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J4" s="34"/>
       <c r="K4" s="26"/>
@@ -1122,10 +1670,10 @@
       <c r="C5" s="36"/>
       <c r="D5" s="34"/>
       <c r="E5" s="27" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G5" s="27">
         <v>0</v>
@@ -1134,7 +1682,7 @@
         <v>3000</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J5" s="34"/>
       <c r="K5" s="26"/>
@@ -1147,10 +1695,10 @@
       <c r="C6" s="36"/>
       <c r="D6" s="34"/>
       <c r="E6" s="28" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G6" s="27">
         <v>0</v>
@@ -1159,7 +1707,7 @@
         <v>100</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J6" s="34"/>
       <c r="K6" s="26"/>
@@ -1171,19 +1719,19 @@
         <v>5574</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D7" s="35">
         <v>2170030</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G7" s="28">
         <v>3</v>
@@ -1192,14 +1740,14 @@
         <v>6</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J7" s="35" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="35" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M7" s="33"/>
     </row>
@@ -1209,17 +1757,17 @@
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="27" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27">
         <v>200</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J8" s="35"/>
       <c r="K8" s="26"/>
@@ -1232,10 +1780,10 @@
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
       <c r="E9" s="27" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G9" s="27">
         <v>0</v>
@@ -1244,7 +1792,7 @@
         <v>500</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J9" s="35"/>
       <c r="K9" s="26"/>
@@ -1292,7 +1840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -1339,10 +1887,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>9</v>
@@ -1353,19 +1901,19 @@
         <v>143659</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4">
         <v>64339</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G2" s="6">
         <v>11</v>
@@ -1374,16 +1922,16 @@
         <v>28</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="57.95">
@@ -1392,10 +1940,10 @@
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
       <c r="E3" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -1404,16 +1952,16 @@
         <v>4</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="57.95">
@@ -1422,10 +1970,10 @@
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -1434,16 +1982,16 @@
         <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
         <v>56</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="101.45">
@@ -1452,10 +2000,10 @@
       <c r="C5" s="5"/>
       <c r="D5" s="4"/>
       <c r="E5" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -1464,16 +2012,16 @@
         <v>3</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="130.5">
@@ -1482,10 +2030,10 @@
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
       <c r="E6" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -1494,16 +2042,16 @@
         <v>30</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J6" s="15">
         <v>500</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.45">
@@ -1524,69 +2072,69 @@
         <v>5574</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8" s="4">
         <v>2170030</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="72.599999999999994">
       <c r="E9" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="130.5">
       <c r="E10" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
@@ -1595,23 +2143,23 @@
         <v>50</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.45"/>
     <row r="12" spans="1:12" ht="14.45"/>
     <row r="13" spans="1:12" ht="14.45">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1634,7 +2182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -1647,160 +2195,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="37" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="37"/>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="37"/>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="38" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="38"/>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="38"/>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="38"/>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="38"/>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="39" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="39"/>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="40" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="40"/>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="40"/>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1815,6 +2363,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2063,28 +2631,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E895C624-286E-404E-ABC2-61E1D4CF12D6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4264E7FE-F362-4EE6-893A-3F86363FF155}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2092,5 +2640,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4264E7FE-F362-4EE6-893A-3F86363FF155}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E895C624-286E-404E-ABC2-61E1D4CF12D6}"/>
 </file>
--- a/01_Input/00_CO Validation/Uganda - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Uganda - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="462" documentId="11_C0200DA9FB882CF1ABF1BE001C5B9906202A95AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C406E6E6-E5EC-47CB-B208-51D40FCB8663}"/>
+  <xr:revisionPtr revIDLastSave="468" documentId="11_C0200DA9FB882CF1ABF1BE001C5B9906202A95AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFB10E79-18EA-4D5D-A5AC-A0058DB76054}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
     <t>Number of health centers benefiting from UNDP solar PV installation</t>
   </si>
   <si>
-    <t>Each health centre is serving a catchment population of about 200,000 people. Estimated 5,600,00 people will be served by the health facilities 
+    <t>Each health centre is serving a catchment population of about 200,000 people. Estimated 5,600,000 people will be served by the health facilities 
 UNDP support solar PV installation in 11 health centers. Additional 17 health centres will be supported.  In addition, UNDP has supported solar PV installationsd in 8 schools, 7 border immigration offices and 5 markets across the Country</t>
   </si>
   <si>
@@ -138,7 +138,7 @@
     <t>8 Selected public schools will benefit from solar PV installations. Total estimated school popultation is 1500 pupils</t>
   </si>
   <si>
-    <t>Small Enterprises</t>
+    <t>Electricity Access</t>
   </si>
   <si>
     <t>Number of small enterprises working in the markets where solar has been installed</t>
@@ -197,9 +197,6 @@
   </si>
   <si>
     <t>Regional</t>
-  </si>
-  <si>
-    <t>Electricity Access</t>
   </si>
   <si>
     <t>Additional electricty generation capacity added</t>
@@ -417,6 +414,9 @@
   </si>
   <si>
     <t>Support for the development of medium enterprises in the energy transition market</t>
+  </si>
+  <si>
+    <t>Small Enterprises</t>
   </si>
   <si>
     <t>Support for the development of small enterprises in the energy transition market</t>
@@ -529,7 +529,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,6 +557,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,7 +731,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -887,6 +893,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1203,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74260D8F-AF74-46D9-8F43-C6873EC3DB38}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1310,7 +1317,7 @@
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="55">
-        <v>7300000</v>
+        <v>5600000</v>
       </c>
       <c r="I2" s="41" t="s">
         <v>25</v>
@@ -1349,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="53">
-        <v>12000</v>
+        <v>1500</v>
       </c>
       <c r="I3" s="41" t="s">
         <v>31</v>
@@ -1378,7 +1385,7 @@
       <c r="B4" s="43"/>
       <c r="C4" s="44"/>
       <c r="D4" s="45"/>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="67" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="40" t="s">
@@ -1549,17 +1556,17 @@
       <c r="C8" s="43"/>
       <c r="D8" s="45"/>
       <c r="E8" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="47" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>52</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="24">
         <v>200</v>
       </c>
       <c r="I8" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8" s="49"/>
       <c r="K8" s="42"/>
@@ -1587,7 +1594,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="24">
         <v>0</v>
@@ -1596,7 +1603,7 @@
         <v>500</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J9" s="52"/>
       <c r="K9" s="42"/>
@@ -1730,10 +1737,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="18" customFormat="1" ht="121.5">
@@ -1760,7 +1767,7 @@
         <v>5600000</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="64" t="s">
         <v>26</v>
@@ -1789,7 +1796,7 @@
         <v>1500</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J3" s="64"/>
       <c r="K3" s="24"/>
@@ -1811,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="J4" s="64"/>
       <c r="K4" s="24"/>
@@ -1827,10 +1834,10 @@
       <c r="C5" s="66"/>
       <c r="D5" s="64"/>
       <c r="E5" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>62</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>63</v>
       </c>
       <c r="G5" s="25">
         <v>0</v>
@@ -1839,7 +1846,7 @@
         <v>3000</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="64"/>
       <c r="K5" s="24"/>
@@ -1852,7 +1859,7 @@
       <c r="C6" s="66"/>
       <c r="D6" s="64"/>
       <c r="E6" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>39</v>
@@ -1914,17 +1921,17 @@
       <c r="C8" s="65"/>
       <c r="D8" s="65"/>
       <c r="E8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>52</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25">
         <v>200</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8" s="65"/>
       <c r="K8" s="24"/>
@@ -1937,10 +1944,10 @@
       <c r="C9" s="65"/>
       <c r="D9" s="65"/>
       <c r="E9" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="25">
         <v>0</v>
@@ -1949,7 +1956,7 @@
         <v>500</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J9" s="65"/>
       <c r="K9" s="24"/>
@@ -2044,10 +2051,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="L1" s="17" t="s">
         <v>9</v>
@@ -2079,16 +2086,16 @@
         <v>28</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" t="s">
         <v>70</v>
-      </c>
-      <c r="L2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="57.95">
@@ -2100,7 +2107,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -2109,16 +2116,16 @@
         <v>4</v>
       </c>
       <c r="I3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="L3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="57.95">
@@ -2130,7 +2137,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
@@ -2139,16 +2146,16 @@
         <v>3</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="101.45">
@@ -2157,10 +2164,10 @@
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -2169,16 +2176,16 @@
         <v>3</v>
       </c>
       <c r="I5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="K5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>81</v>
-      </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="130.5">
@@ -2187,7 +2194,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>39</v>
@@ -2199,16 +2206,16 @@
         <v>30</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J6" s="13">
         <v>500</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.45">
@@ -2241,57 +2248,57 @@
         <v>19</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="K8" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="L8" t="s">
         <v>89</v>
-      </c>
-      <c r="L8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="72.599999999999994">
       <c r="E9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="130.5">
       <c r="E10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -2300,23 +2307,23 @@
         <v>50</v>
       </c>
       <c r="I10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>97</v>
-      </c>
       <c r="K10" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.45"/>
     <row r="12" spans="1:12" ht="14.45"/>
     <row r="13" spans="1:12" ht="14.45">
       <c r="A13" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2361,127 +2368,127 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="45.75">
-      <c r="A2" s="67" t="s">
-        <v>51</v>
+      <c r="A2" s="68" t="s">
+        <v>32</v>
       </c>
       <c r="B2" s="57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="57" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="57" t="s">
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30.75">
-      <c r="A4" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="57" t="s">
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="68" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="30.75">
-      <c r="A5" s="67" t="s">
+      <c r="B5" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="57" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="68" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="91.5">
-      <c r="A6" s="67" t="s">
+      <c r="B6" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="57" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="57" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45.75">
-      <c r="A7" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="57" t="s">
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="68" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="45.75">
-      <c r="A8" s="67" t="s">
+      <c r="B8" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="57" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="57" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45.75">
-      <c r="A9" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="57" t="s">
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="68" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="30.75">
-      <c r="A10" s="67" t="s">
+      <c r="B10" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="68" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="68" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="30.75">
-      <c r="A11" s="67" t="s">
+      <c r="B11" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="68" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="68" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="45.75">
-      <c r="A12" s="67" t="s">
+      <c r="B12" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="57" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="68" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="30.75">
-      <c r="A13" s="67" t="s">
+      <c r="B13" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="68" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="68" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="67" t="s">
+      <c r="B14" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="68" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="68" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="30.75">
-      <c r="A15" s="67" t="s">
+      <c r="B15" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="68" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="68" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="30.75">
-      <c r="A16" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="69" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30.75">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="68" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="57" t="s">
@@ -2489,42 +2496,42 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75">
-      <c r="A18" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="68" t="s">
+      <c r="A18" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="69" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="76.5">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="69" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30.75">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="69" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45.75">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="70" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30.75">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="69" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2534,8 +2541,70 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Gloria Namande</DisplayName>
+        <AccountId>1432</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Tom Sengalama</DisplayName>
+        <AccountId>1974</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Michael Kiza</DisplayName>
+        <AccountId>1710</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Elsie Attafuah</DisplayName>
+        <AccountId>2018</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sheila Ngatia</DisplayName>
+        <AccountId>2019</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Benjamin Keller</DisplayName>
+        <AccountId>1227</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Riad Meddeb</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stefano Pistolese</DisplayName>
+        <AccountId>772</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -2560,6 +2629,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2639,6 +2709,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2782,70 +2857,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Gloria Namande</DisplayName>
-        <AccountId>1432</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Tom Sengalama</DisplayName>
-        <AccountId>1974</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Michael Kiza</DisplayName>
-        <AccountId>1710</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Elsie Attafuah</DisplayName>
-        <AccountId>2018</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sheila Ngatia</DisplayName>
-        <AccountId>2019</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Benjamin Keller</DisplayName>
-        <AccountId>1227</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Riad Meddeb</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stefano Pistolese</DisplayName>
-        <AccountId>772</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E895C624-286E-404E-ABC2-61E1D4CF12D6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4264E7FE-F362-4EE6-893A-3F86363FF155}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2853,5 +2866,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4264E7FE-F362-4EE6-893A-3F86363FF155}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDBC726A-7CEF-4FCE-950C-70EF97981F6A}"/>
 </file>